--- a/data/Datenerfassung 2016.xlsx
+++ b/data/Datenerfassung 2016.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas-Thinkpad\Documents\workspace\websites\solarbeam\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15600" windowHeight="11760" tabRatio="722" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="722" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Jahresübersicht" sheetId="7" r:id="rId1"/>
@@ -23,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'EÜR 15'!$A$1:$H$22</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -33,7 +38,7 @@
     <author>Harald</author>
   </authors>
   <commentList>
-    <comment ref="DF17" authorId="0">
+    <comment ref="DF17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -605,14 +610,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="165" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,7 +1194,7 @@
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1482,9 +1488,13 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="2" builtinId="4"/>
   </cellStyles>
@@ -1518,12 +1528,30 @@
       <color rgb="FF709C70"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1541,19 +1569,22 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Soll</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Jahresübersicht!$B$1:$U$1</c:f>
@@ -1671,6 +1702,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D708-4562-8941-1DCF677FA3DA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1683,6 +1719,7 @@
               <a:srgbClr val="00B050"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Jahresübersicht!$B$1:$U$1</c:f>
@@ -1785,6 +1822,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D708-4562-8941-1DCF677FA3DA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1799,6 +1841,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Jahresübersicht!$B$6:$U$6</c:f>
@@ -1848,12 +1891,26 @@
                   <c:v>3520</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1828</c:v>
+                  <c:v>1927.9970000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D708-4562-8941-1DCF677FA3DA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="106728832"/>
         <c:axId val="106747008"/>
       </c:barChart>
@@ -1862,23 +1919,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="106747008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="106747008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="106728832"/>
         <c:crosses val="autoZero"/>
@@ -1900,6 +1964,7 @@
           <c:h val="0.17099681688725091"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1914,6 +1979,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -1965,8 +2032,18 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1984,13 +2061,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2004,6 +2083,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Werte KWh'!$DC$6:$DN$6</c:f>
@@ -2093,6 +2173,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1C3-4AB9-997A-199FE020C1E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2105,6 +2190,7 @@
               <a:srgbClr val="00B050"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Werte KWh'!$DC$6:$DN$6</c:f>
@@ -2194,7 +2280,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1C3-4AB9-997A-199FE020C1E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="107859968"/>
         <c:axId val="107861504"/>
       </c:barChart>
@@ -2203,23 +2303,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107861504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="107861504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107859968"/>
         <c:crosses val="autoZero"/>
@@ -2261,9 +2368,11 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -2315,8 +2424,18 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2334,19 +2453,22 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Soll</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Werte KWh Bezug'!$B$6:$M$6</c:f>
@@ -2436,6 +2558,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14A5-4B69-A455-8C4729D8B549}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2443,6 +2570,7 @@
           <c:tx>
             <c:v>Ist</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Werte KWh Bezug'!$B$6:$M$6</c:f>
@@ -2524,7 +2652,7 @@
                   <c:v>272.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>99.997000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2532,7 +2660,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-14A5-4B69-A455-8C4729D8B549}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="109291776"/>
         <c:axId val="109301760"/>
       </c:barChart>
@@ -2541,23 +2683,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109301760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="109301760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109291776"/>
         <c:crosses val="autoZero"/>
@@ -2605,9 +2754,11 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -2659,8 +2810,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2686,18 +2847,22 @@
           <c:y val="1.8677775285773981E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Soll</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$B$6:$E$6</c:f>
@@ -2708,6 +2873,11 @@
               <c:f>'Werte KWh'!$B$3:$E$3</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D07-453C-B9E0-86FA7FE968E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2715,6 +2885,7 @@
           <c:tx>
             <c:v>Ist</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$B$6:$E$6</c:f>
@@ -2725,7 +2896,21 @@
               <c:f>'Werte KWh'!$B$38:$E$38</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D07-453C-B9E0-86FA7FE968E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="107099264"/>
         <c:axId val="107687936"/>
       </c:barChart>
@@ -2734,22 +2919,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107687936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="107687936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107099264"/>
         <c:crosses val="autoZero"/>
@@ -2761,8 +2953,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -2814,8 +3009,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2833,18 +3038,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Soll</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$H$6:$S$6</c:f>
@@ -2855,6 +3064,11 @@
               <c:f>'Werte KWh'!$H$3:$S$3</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5672-4FC8-A844-17938A24BA13}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2862,6 +3076,7 @@
           <c:tx>
             <c:v>Ist</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$H$6:$S$6</c:f>
@@ -2872,7 +3087,21 @@
               <c:f>'Werte KWh'!$H$38:$S$38</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5672-4FC8-A844-17938A24BA13}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="107712896"/>
         <c:axId val="107714432"/>
       </c:barChart>
@@ -2881,22 +3110,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107714432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="107714432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107712896"/>
         <c:crosses val="autoZero"/>
@@ -2908,8 +3144,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -2961,8 +3200,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2980,18 +3229,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Soll</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$W$6:$AH$6</c:f>
@@ -3002,6 +3255,11 @@
               <c:f>'Werte KWh'!$W$3:$AH$3</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65AA-42C8-AD61-EC64E50ABE66}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3009,6 +3267,7 @@
           <c:tx>
             <c:v>Ist</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$W$6:$AH$6</c:f>
@@ -3019,7 +3278,21 @@
               <c:f>'Werte KWh'!$W$38:$AH$38</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65AA-42C8-AD61-EC64E50ABE66}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="107777024"/>
         <c:axId val="107799296"/>
       </c:barChart>
@@ -3028,22 +3301,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107799296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="107799296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107777024"/>
         <c:crosses val="autoZero"/>
@@ -3055,8 +3335,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -3108,8 +3391,18 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3127,18 +3420,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Soll</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$AK$6:$AV$6</c:f>
@@ -3149,6 +3446,11 @@
               <c:f>'Werte KWh'!$AK$3:$AV$3</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90A7-42EA-BC91-6AF00ACA78EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3156,6 +3458,7 @@
           <c:tx>
             <c:v>Ist</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$AK$6:$AV$6</c:f>
@@ -3166,7 +3469,21 @@
               <c:f>'Werte KWh'!$AK$38:$AV$38</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-90A7-42EA-BC91-6AF00ACA78EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="107443328"/>
         <c:axId val="107444864"/>
       </c:barChart>
@@ -3175,22 +3492,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107444864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="107444864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107443328"/>
         <c:crosses val="autoZero"/>
@@ -3202,8 +3526,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -3255,8 +3582,18 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3274,18 +3611,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Soll</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$BM$6:$BX$6</c:f>
@@ -3296,6 +3637,11 @@
               <c:f>'Werte KWh'!$BM$3:$BX$3</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E221-4174-8545-77868235635E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3303,6 +3649,7 @@
           <c:tx>
             <c:v>Ist</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$BM$6:$BX$6</c:f>
@@ -3313,7 +3660,21 @@
               <c:f>'Werte KWh'!$BM$38:$BX$38</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E221-4174-8545-77868235635E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="107773312"/>
         <c:axId val="107349120"/>
       </c:barChart>
@@ -3322,23 +3683,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107349120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="107349120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107773312"/>
         <c:crosses val="autoZero"/>
@@ -3350,8 +3718,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -3403,8 +3774,18 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3422,18 +3803,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Soll</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$AY$6:$BJ$6</c:f>
@@ -3444,6 +3829,11 @@
               <c:f>'Werte KWh'!$AY$3:$BJ$3</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA5E-4334-95B7-52A200811C2A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3451,6 +3841,7 @@
           <c:tx>
             <c:v>Ist</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$AY$6:$BJ$6</c:f>
@@ -3461,7 +3852,21 @@
               <c:f>'Werte KWh'!$AY$38:$BJ$38</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA5E-4334-95B7-52A200811C2A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="107381888"/>
         <c:axId val="107383424"/>
       </c:barChart>
@@ -3470,22 +3875,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107383424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="107383424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107381888"/>
         <c:crosses val="autoZero"/>
@@ -3497,8 +3909,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -3550,8 +3965,18 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3569,18 +3994,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Soll</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$CA$6:$CL$6</c:f>
@@ -3591,6 +4020,11 @@
               <c:f>'Werte KWh'!$CA$3:$CL$3</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-493C-4E54-B45C-27B038EE464E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3598,6 +4032,7 @@
           <c:tx>
             <c:v>Ist</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$CA$6:$CL$6</c:f>
@@ -3608,7 +4043,21 @@
               <c:f>'Werte KWh'!$CA$38:$CL$38</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-493C-4E54-B45C-27B038EE464E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="107408000"/>
         <c:axId val="109150592"/>
       </c:barChart>
@@ -3617,23 +4066,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="109150592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="109150592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107408000"/>
         <c:crosses val="autoZero"/>
@@ -3645,8 +4101,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -3698,8 +4157,18 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3717,18 +4186,22 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Soll</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$CO$6:$CZ$6</c:f>
@@ -3739,6 +4212,11 @@
               <c:f>'Werte KWh'!$CO$3:$CZ$3</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DA3-4CCE-BBFD-42DE516608F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3746,6 +4224,7 @@
           <c:tx>
             <c:v>Ist</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Werte KWh'!$CO$6:$CZ$6</c:f>
@@ -3756,7 +4235,21 @@
               <c:f>'Werte KWh'!$CO$38:$CZ$38</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DA3-4CCE-BBFD-42DE516608F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="107807488"/>
         <c:axId val="107809024"/>
       </c:barChart>
@@ -3765,23 +4258,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107809024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="107809024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="107807488"/>
         <c:crosses val="autoZero"/>
@@ -3793,8 +4293,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
@@ -4351,9 +4854,9 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>36171</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>103205</xdr:rowOff>
+      <xdr:rowOff>103206</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1941171" cy="736997"/>
+    <xdr:ext cx="1941171" cy="569148"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Textfeld 5"/>
@@ -4361,8 +4864,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2581275" y="808055"/>
-          <a:ext cx="1941171" cy="736997"/>
+          <a:off x="7736853" y="793488"/>
+          <a:ext cx="1941171" cy="569148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4385,7 +4888,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -6188,9 +6691,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6228,9 +6731,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6262,9 +6765,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6296,9 +6817,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6471,19 +7010,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="21.75" thickTop="1">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A1" s="37" t="s">
         <v>116</v>
       </c>
@@ -6548,7 +7087,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="18.75">
+    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="115" t="s">
         <v>117</v>
       </c>
@@ -6599,7 +7138,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75">
+    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="99" t="s">
         <v>118</v>
       </c>
@@ -6648,7 +7187,7 @@
       <c r="T3" s="141"/>
       <c r="U3" s="141"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>122</v>
       </c>
@@ -6703,7 +7242,7 @@
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>123</v>
       </c>
@@ -6758,7 +7297,7 @@
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
     </row>
-    <row r="6" spans="1:21" ht="18.75">
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="134" t="s">
         <v>165</v>
       </c>
@@ -6806,7 +7345,7 @@
       </c>
       <c r="P6" s="137">
         <f>'Werte KWh Bezug'!N38</f>
-        <v>1828</v>
+        <v>1927.9970000000001</v>
       </c>
       <c r="Q6" s="137"/>
       <c r="R6" s="137"/>
@@ -6814,7 +7353,7 @@
       <c r="T6" s="137"/>
       <c r="U6" s="137"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -6837,7 +7376,7 @@
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -6860,7 +7399,7 @@
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -6883,7 +7422,7 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -6906,7 +7445,7 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -6929,7 +7468,7 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -6952,7 +7491,7 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -6975,7 +7514,7 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -6998,7 +7537,7 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -7021,7 +7560,7 @@
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -7044,7 +7583,7 @@
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -7067,7 +7606,7 @@
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -7090,7 +7629,7 @@
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -7113,7 +7652,7 @@
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -7136,7 +7675,7 @@
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -7159,7 +7698,7 @@
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -7182,7 +7721,7 @@
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -7205,7 +7744,7 @@
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -7228,7 +7767,7 @@
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -7251,7 +7790,7 @@
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -7274,7 +7813,7 @@
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -7297,7 +7836,7 @@
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -7320,7 +7859,7 @@
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -7343,7 +7882,7 @@
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -7366,7 +7905,7 @@
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -7389,7 +7928,7 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -7412,7 +7951,7 @@
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -7435,7 +7974,7 @@
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -7458,7 +7997,7 @@
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -7481,7 +8020,7 @@
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -7504,7 +8043,7 @@
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -7527,7 +8066,7 @@
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -7550,7 +8089,7 @@
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -7581,22 +8120,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="123" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="123" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="12" style="123" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>128</v>
       </c>
@@ -7607,7 +8146,7 @@
       <c r="F1" s="122"/>
       <c r="G1" s="54"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
@@ -7616,7 +8155,7 @@
       <c r="F2" s="122"/>
       <c r="G2" s="54"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>122</v>
       </c>
@@ -7627,7 +8166,7 @@
       <c r="F3" s="122"/>
       <c r="G3" s="54"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="118" t="s">
         <v>130</v>
       </c>
@@ -7640,7 +8179,7 @@
       </c>
       <c r="G4" s="54"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="119" t="s">
         <v>131</v>
       </c>
@@ -7653,7 +8192,7 @@
       </c>
       <c r="G5" s="54"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
@@ -7665,7 +8204,7 @@
       </c>
       <c r="G6" s="54"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
       <c r="C7" s="55"/>
@@ -7674,12 +8213,12 @@
       <c r="F7" s="122"/>
       <c r="G7" s="54"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -7689,7 +8228,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -7699,7 +8238,7 @@
         <v>328.28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -7712,7 +8251,7 @@
         <v>53.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -7722,7 +8261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -7732,7 +8271,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -7742,7 +8281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -7752,7 +8291,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -7762,7 +8301,7 @@
         <v>421.4</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -7778,7 +8317,7 @@
         <v>10498.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="60"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -7795,7 +8334,7 @@
         <v>9798.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickTop="1">
+    <row r="19" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
         <v>41</v>
       </c>
@@ -7806,7 +8345,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="63" t="s">
         <v>42</v>
       </c>
@@ -7817,7 +8356,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="62" t="s">
         <v>93</v>
       </c>
@@ -7836,7 +8375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7846,14 +8385,14 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>141</v>
       </c>
@@ -7865,7 +8404,7 @@
       <c r="G1" s="54"/>
       <c r="H1" s="123"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
@@ -7875,7 +8414,7 @@
       <c r="G2" s="54"/>
       <c r="H2" s="123"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>122</v>
       </c>
@@ -7887,7 +8426,7 @@
       <c r="G3" s="54"/>
       <c r="H3" s="123"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="118" t="s">
         <v>151</v>
       </c>
@@ -7901,7 +8440,7 @@
       <c r="G4" s="54"/>
       <c r="H4" s="123"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="119" t="s">
         <v>131</v>
       </c>
@@ -7915,7 +8454,7 @@
       <c r="G5" s="54"/>
       <c r="H5" s="123"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
@@ -7928,7 +8467,7 @@
       <c r="G6" s="54"/>
       <c r="H6" s="123"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
       <c r="C7" s="55"/>
@@ -7938,14 +8477,14 @@
       <c r="G7" s="54"/>
       <c r="H7" s="123"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
       <c r="F8" s="123"/>
       <c r="H8" s="123"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -7957,7 +8496,7 @@
       <c r="F9" s="123"/>
       <c r="H9" s="123"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -7969,7 +8508,7 @@
       <c r="F10" s="123"/>
       <c r="H10" s="123"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -7982,7 +8521,7 @@
       <c r="F11" s="123"/>
       <c r="H11" s="123"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -7994,7 +8533,7 @@
       <c r="F12" s="123"/>
       <c r="H12" s="123"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -8006,7 +8545,7 @@
       <c r="F13" s="123"/>
       <c r="H13" s="123"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -8018,7 +8557,7 @@
       <c r="F14" s="123"/>
       <c r="H14" s="123"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -8030,7 +8569,7 @@
       <c r="F15" s="123"/>
       <c r="H15" s="123"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -8042,7 +8581,7 @@
       <c r="F16" s="123"/>
       <c r="H16" s="123"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -8059,7 +8598,7 @@
         <v>9798.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="60"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -8076,7 +8615,7 @@
         <v>9098.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickTop="1">
+    <row r="19" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
         <v>41</v>
       </c>
@@ -8090,7 +8629,7 @@
       <c r="F19" s="123"/>
       <c r="H19" s="123"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="63" t="s">
         <v>42</v>
       </c>
@@ -8104,7 +8643,7 @@
       <c r="F20" s="123"/>
       <c r="H20" s="123"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="62" t="s">
         <v>93</v>
       </c>
@@ -8125,21 +8664,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>152</v>
       </c>
@@ -8151,7 +8690,7 @@
       <c r="G1" s="54"/>
       <c r="H1" s="123"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
@@ -8161,7 +8700,7 @@
       <c r="G2" s="54"/>
       <c r="H2" s="123"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>122</v>
       </c>
@@ -8173,7 +8712,7 @@
       <c r="G3" s="54"/>
       <c r="H3" s="123"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="118" t="s">
         <v>153</v>
       </c>
@@ -8187,7 +8726,7 @@
       <c r="G4" s="54"/>
       <c r="H4" s="123"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="119" t="s">
         <v>131</v>
       </c>
@@ -8201,7 +8740,7 @@
       <c r="G5" s="54"/>
       <c r="H5" s="123"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
@@ -8214,7 +8753,7 @@
       <c r="G6" s="54"/>
       <c r="H6" s="123"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
       <c r="C7" s="55"/>
@@ -8224,14 +8763,14 @@
       <c r="G7" s="54"/>
       <c r="H7" s="123"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
       <c r="F8" s="123"/>
       <c r="H8" s="123"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -8243,7 +8782,7 @@
       <c r="F9" s="123"/>
       <c r="H9" s="123"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -8253,7 +8792,7 @@
       <c r="F10" s="123"/>
       <c r="H10" s="123"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -8266,7 +8805,7 @@
       <c r="F11" s="123"/>
       <c r="H11" s="123"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -8278,7 +8817,7 @@
       <c r="F12" s="123"/>
       <c r="H12" s="123"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -8290,7 +8829,7 @@
       <c r="F13" s="123"/>
       <c r="H13" s="123"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -8302,7 +8841,7 @@
       <c r="F14" s="123"/>
       <c r="H14" s="123"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -8314,7 +8853,7 @@
       <c r="F15" s="123"/>
       <c r="H15" s="123"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -8326,7 +8865,7 @@
       <c r="F16" s="123"/>
       <c r="H16" s="123"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -8343,7 +8882,7 @@
         <v>9098.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="60"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -8360,7 +8899,7 @@
         <v>8398.15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickTop="1">
+    <row r="19" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
         <v>41</v>
       </c>
@@ -8374,7 +8913,7 @@
       <c r="F19" s="123"/>
       <c r="H19" s="123"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="63" t="s">
         <v>42</v>
       </c>
@@ -8388,7 +8927,7 @@
       <c r="F20" s="123"/>
       <c r="H20" s="123"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="62" t="s">
         <v>93</v>
       </c>
@@ -8409,97 +8948,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:DT70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DB25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DO52" sqref="DO52"/>
+    <sheetView topLeftCell="DK19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DO44" sqref="DO44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9.140625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="11.140625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="16" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="18" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="11.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="15.85546875" style="73" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.7109375" style="73" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="7.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="11.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="31" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9.33203125" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9.109375" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="11.109375" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="11.88671875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="16" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="18" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="11.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="15.88671875" style="73" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.6640625" style="73" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="7.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="11.88671875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="31" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="33" max="33" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="11.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="15.85546875" style="73" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="7.140625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="11.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="45" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="46" max="46" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="11.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="15.88671875" style="73" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="7.109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="11.88671875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="45" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="47" max="47" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="48" width="11.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="15.85546875" style="73" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="7.140625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="11.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="12.28515625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="59" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="11.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="15.88671875" style="73" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="7.109375" style="1" customWidth="1"/>
+    <col min="51" max="51" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="11.88671875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="12.33203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="59" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="61" max="61" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="12.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="15.85546875" style="73" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="7.140625" style="1" customWidth="1"/>
-    <col min="65" max="65" width="9.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="12.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="15.88671875" style="73" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="7.109375" style="1" customWidth="1"/>
+    <col min="65" max="65" width="9.88671875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="66" max="66" width="10" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="67" max="73" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="74" max="74" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="67" max="73" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="74" max="74" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="75" max="75" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="14.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="77" max="77" width="15.85546875" style="73" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="7.140625" style="1" customWidth="1"/>
-    <col min="79" max="79" width="9.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="14.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="77" max="77" width="15.88671875" style="73" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="7.109375" style="1" customWidth="1"/>
+    <col min="79" max="79" width="9.88671875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="80" max="80" width="10" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="81" max="87" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="88" max="88" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="81" max="87" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="88" max="88" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="89" max="89" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="14.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="91" max="91" width="16.42578125" style="73" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="7.140625" style="1" customWidth="1"/>
-    <col min="93" max="93" width="9.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="14.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="91" max="91" width="16.44140625" style="73" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="7.109375" style="1" customWidth="1"/>
+    <col min="93" max="93" width="9.88671875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="94" max="94" width="10" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="95" max="101" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="102" max="102" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="95" max="101" width="9.109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="102" max="102" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="103" max="103" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="104" max="104" width="14.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="17.7109375" style="73" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="7.140625" style="1" customWidth="1"/>
-    <col min="107" max="107" width="9.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="104" max="104" width="14.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="105" max="105" width="17.6640625" style="73" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="7.109375" style="1" customWidth="1"/>
+    <col min="107" max="107" width="9.88671875" style="1" customWidth="1" outlineLevel="1"/>
     <col min="108" max="108" width="10" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="109" max="109" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="110" max="110" width="13.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="111" max="115" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="116" max="116" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="109" max="109" width="9.109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="110" max="110" width="13.6640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="111" max="115" width="9.109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="9.109375" customWidth="1" outlineLevel="1"/>
     <col min="117" max="117" width="10" customWidth="1" outlineLevel="1"/>
-    <col min="118" max="118" width="14.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="119" max="119" width="17.42578125" style="73" customWidth="1"/>
-    <col min="120" max="120" width="7.140625" style="1" customWidth="1"/>
-    <col min="121" max="121" width="12.42578125" customWidth="1"/>
-    <col min="122" max="122" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="14.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="119" max="119" width="17.44140625" style="73" customWidth="1"/>
+    <col min="120" max="120" width="7.109375" style="1" customWidth="1"/>
+    <col min="121" max="121" width="12.44140625" customWidth="1"/>
+    <col min="122" max="122" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" s="13" customFormat="1" ht="21.75" thickTop="1">
+    <row r="1" spans="1:120" s="13" customFormat="1" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A1" s="34"/>
       <c r="B1" s="37" t="s">
         <v>0</v>
@@ -8639,7 +9178,7 @@
       <c r="DO1" s="38"/>
       <c r="DP1" s="74"/>
     </row>
-    <row r="2" spans="1:120" s="3" customFormat="1">
+    <row r="2" spans="1:120" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="32"/>
@@ -8761,7 +9300,7 @@
       <c r="DO2" s="33"/>
       <c r="DP2" s="31"/>
     </row>
-    <row r="3" spans="1:120" s="104" customFormat="1" ht="18.75">
+    <row r="3" spans="1:120" s="104" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="99" t="s">
         <v>6</v>
       </c>
@@ -9224,7 +9763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:120" s="110" customFormat="1">
+    <row r="4" spans="1:120" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="105" t="s">
         <v>16</v>
       </c>
@@ -9668,7 +10207,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="32.25" customHeight="1">
+    <row r="5" spans="1:120" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -9790,7 +10329,7 @@
       <c r="DO5" s="17"/>
       <c r="DP5" s="16"/>
     </row>
-    <row r="6" spans="1:120" s="3" customFormat="1">
+    <row r="6" spans="1:120" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>22</v>
       </c>
@@ -10152,7 +10691,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:120">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>1</v>
       </c>
@@ -10488,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:120">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>2</v>
       </c>
@@ -10824,7 +11363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:120">
+    <row r="9" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>3</v>
       </c>
@@ -11160,7 +11699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:120">
+    <row r="10" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>4</v>
       </c>
@@ -11496,7 +12035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:120">
+    <row r="11" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>5</v>
       </c>
@@ -11832,7 +12371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:120">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>6</v>
       </c>
@@ -12168,7 +12707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:120">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>7</v>
       </c>
@@ -12504,7 +13043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:120">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>8</v>
       </c>
@@ -12840,7 +13379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:120">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>9</v>
       </c>
@@ -13176,7 +13715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:120">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>10</v>
       </c>
@@ -13512,7 +14051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:121">
+    <row r="17" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>11</v>
       </c>
@@ -13848,7 +14387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:121">
+    <row r="18" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>12</v>
       </c>
@@ -14184,7 +14723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:121">
+    <row r="19" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>13</v>
       </c>
@@ -14520,7 +15059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:121">
+    <row r="20" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>14</v>
       </c>
@@ -14857,7 +15396,7 @@
       </c>
       <c r="DQ20" s="88"/>
     </row>
-    <row r="21" spans="1:121">
+    <row r="21" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>15</v>
       </c>
@@ -15193,7 +15732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:121">
+    <row r="22" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>16</v>
       </c>
@@ -15529,7 +16068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:121">
+    <row r="23" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>17</v>
       </c>
@@ -15865,7 +16404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:121">
+    <row r="24" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>18</v>
       </c>
@@ -16201,7 +16740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:121">
+    <row r="25" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>19</v>
       </c>
@@ -16537,7 +17076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:121">
+    <row r="26" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>20</v>
       </c>
@@ -16873,7 +17412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:121">
+    <row r="27" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>21</v>
       </c>
@@ -17209,7 +17748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:121">
+    <row r="28" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>22</v>
       </c>
@@ -17545,7 +18084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:121">
+    <row r="29" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>23</v>
       </c>
@@ -17881,7 +18420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:121">
+    <row r="30" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>24</v>
       </c>
@@ -18217,7 +18756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:121">
+    <row r="31" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>25</v>
       </c>
@@ -18553,7 +19092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:121">
+    <row r="32" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
         <v>26</v>
       </c>
@@ -18890,7 +19429,7 @@
       </c>
       <c r="DQ32" s="128"/>
     </row>
-    <row r="33" spans="1:124">
+    <row r="33" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>27</v>
       </c>
@@ -19226,7 +19765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:124">
+    <row r="34" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>28</v>
       </c>
@@ -19562,7 +20101,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:124">
+    <row r="35" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>29</v>
       </c>
@@ -19884,7 +20423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:124">
+    <row r="36" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>30</v>
       </c>
@@ -20204,7 +20743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:124">
+    <row r="37" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>31</v>
       </c>
@@ -20465,7 +21004,7 @@
       </c>
       <c r="DR37" s="128"/>
     </row>
-    <row r="38" spans="1:124" s="104" customFormat="1" ht="18.75">
+    <row r="38" spans="1:124" s="104" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="111" t="s">
         <v>55</v>
       </c>
@@ -20935,7 +21474,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:124" s="3" customFormat="1">
+    <row r="39" spans="1:124" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>17</v>
       </c>
@@ -21403,7 +21942,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:124" s="3" customFormat="1">
+    <row r="40" spans="1:124" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
         <v>24</v>
       </c>
@@ -21871,7 +22410,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:124" s="3" customFormat="1" ht="18">
+    <row r="41" spans="1:124" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>76</v>
       </c>
@@ -22148,7 +22687,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:124" s="3" customFormat="1">
+    <row r="42" spans="1:124" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>51</v>
       </c>
@@ -22322,7 +22861,7 @@
       </c>
       <c r="DP42" s="64"/>
     </row>
-    <row r="43" spans="1:124" s="3" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:124" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
         <v>52</v>
       </c>
@@ -22504,7 +23043,7 @@
       <c r="DS43" s="96"/>
       <c r="DT43" s="97"/>
     </row>
-    <row r="44" spans="1:124" s="3" customFormat="1" ht="20.25" thickTop="1" thickBot="1">
+    <row r="44" spans="1:124" s="3" customFormat="1" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23" t="s">
         <v>164</v>
       </c>
@@ -22719,7 +23258,7 @@
       <c r="DS44" s="93"/>
       <c r="DT44" s="94"/>
     </row>
-    <row r="45" spans="1:124" s="3" customFormat="1" ht="15.75" thickTop="1">
+    <row r="45" spans="1:124" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -22849,7 +23388,7 @@
       <c r="DS45" s="98"/>
       <c r="DT45" s="98"/>
     </row>
-    <row r="46" spans="1:124">
+    <row r="46" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
@@ -22980,7 +23519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:124">
+    <row r="47" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
@@ -23112,7 +23651,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:124">
+    <row r="48" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
@@ -23234,7 +23773,7 @@
       <c r="DO48" s="17"/>
       <c r="DP48" s="14"/>
     </row>
-    <row r="49" spans="1:120">
+    <row r="49" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
@@ -23356,7 +23895,7 @@
       <c r="DO49" s="17"/>
       <c r="DP49" s="14"/>
     </row>
-    <row r="50" spans="1:120">
+    <row r="50" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
@@ -23478,7 +24017,7 @@
       <c r="DO50" s="17"/>
       <c r="DP50" s="14"/>
     </row>
-    <row r="51" spans="1:120">
+    <row r="51" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
@@ -23600,7 +24139,7 @@
       <c r="DO51" s="17"/>
       <c r="DP51" s="14"/>
     </row>
-    <row r="52" spans="1:120">
+    <row r="52" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
@@ -23722,7 +24261,7 @@
       <c r="DO52" s="17"/>
       <c r="DP52" s="14"/>
     </row>
-    <row r="53" spans="1:120">
+    <row r="53" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
@@ -23844,7 +24383,7 @@
       <c r="DO53" s="17"/>
       <c r="DP53" s="14"/>
     </row>
-    <row r="54" spans="1:120">
+    <row r="54" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
@@ -23966,7 +24505,7 @@
       <c r="DO54" s="17"/>
       <c r="DP54" s="14"/>
     </row>
-    <row r="55" spans="1:120">
+    <row r="55" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
@@ -24088,7 +24627,7 @@
       <c r="DO55" s="17"/>
       <c r="DP55" s="14"/>
     </row>
-    <row r="56" spans="1:120">
+    <row r="56" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
@@ -24210,7 +24749,7 @@
       <c r="DO56" s="17"/>
       <c r="DP56" s="14"/>
     </row>
-    <row r="57" spans="1:120">
+    <row r="57" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
@@ -24332,7 +24871,7 @@
       <c r="DO57" s="17"/>
       <c r="DP57" s="14"/>
     </row>
-    <row r="58" spans="1:120">
+    <row r="58" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
@@ -24454,7 +24993,7 @@
       <c r="DO58" s="17"/>
       <c r="DP58" s="14"/>
     </row>
-    <row r="59" spans="1:120">
+    <row r="59" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
@@ -24576,7 +25115,7 @@
       <c r="DO59" s="17"/>
       <c r="DP59" s="14"/>
     </row>
-    <row r="60" spans="1:120">
+    <row r="60" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -24698,7 +25237,7 @@
       <c r="DO60" s="17"/>
       <c r="DP60" s="14"/>
     </row>
-    <row r="61" spans="1:120">
+    <row r="61" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
@@ -24820,7 +25359,7 @@
       <c r="DO61" s="17"/>
       <c r="DP61" s="14"/>
     </row>
-    <row r="62" spans="1:120">
+    <row r="62" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="14"/>
       <c r="C62" s="15"/>
@@ -24942,7 +25481,7 @@
       <c r="DO62" s="17"/>
       <c r="DP62" s="14"/>
     </row>
-    <row r="63" spans="1:120">
+    <row r="63" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
@@ -25064,7 +25603,7 @@
       <c r="DO63" s="17"/>
       <c r="DP63" s="14"/>
     </row>
-    <row r="64" spans="1:120">
+    <row r="64" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
@@ -25186,7 +25725,7 @@
       <c r="DO64" s="17"/>
       <c r="DP64" s="14"/>
     </row>
-    <row r="65" spans="1:120">
+    <row r="65" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
@@ -25308,7 +25847,7 @@
       <c r="DO65" s="17"/>
       <c r="DP65" s="14"/>
     </row>
-    <row r="66" spans="1:120">
+    <row r="66" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
@@ -25430,7 +25969,7 @@
       <c r="DO66" s="17"/>
       <c r="DP66" s="14"/>
     </row>
-    <row r="67" spans="1:120">
+    <row r="67" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
@@ -25552,7 +26091,7 @@
       <c r="DO67" s="17"/>
       <c r="DP67" s="14"/>
     </row>
-    <row r="68" spans="1:120">
+    <row r="68" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
@@ -25674,7 +26213,7 @@
       <c r="DO68" s="17"/>
       <c r="DP68" s="14"/>
     </row>
-    <row r="69" spans="1:120" ht="15.75" thickBot="1">
+    <row r="69" spans="1:120" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="24"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -25796,7 +26335,7 @@
       <c r="DO69" s="25"/>
       <c r="DP69" s="26"/>
     </row>
-    <row r="70" spans="1:120" ht="15.75" thickTop="1"/>
+    <row r="70" spans="1:120" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="C44:D44 I44:R44 G44 X44:AG44 U44:V44 AL44:AU44 B41 AZ44:BH44 BX44:CJ44 CL44:DB44 BX45 BJ45 BL45 CL45 CZ45 C40:DB41 BK44:BV44 AW44:AX44 AI44:AJ44">
     <cfRule type="cellIs" dxfId="3" priority="17" operator="between">
@@ -25824,32 +26363,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="10" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="10" width="9.109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="10" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="17.42578125" style="73" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="17.44140625" style="73" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" ht="21.75" thickTop="1">
+    <row r="1" spans="1:15" s="13" customFormat="1" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A1" s="34"/>
       <c r="B1" s="37" t="s">
         <v>127</v>
@@ -25868,7 +26407,7 @@
       <c r="N1" s="38"/>
       <c r="O1" s="74"/>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -25885,7 +26424,7 @@
       <c r="N2" s="33"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:15" s="104" customFormat="1" ht="18.75">
+    <row r="3" spans="1:15" s="104" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="99" t="s">
         <v>158</v>
       </c>
@@ -25944,7 +26483,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="110" customFormat="1">
+    <row r="4" spans="1:15" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="105" t="s">
         <v>16</v>
       </c>
@@ -26001,7 +26540,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="32.25" customHeight="1">
+    <row r="5" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -26018,7 +26557,7 @@
       <c r="N5" s="17"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1">
+    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>22</v>
       </c>
@@ -26065,7 +26604,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>1</v>
       </c>
@@ -26093,14 +26632,16 @@
       <c r="K7" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L7" s="11"/>
+      <c r="L7" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M7" s="11"/>
       <c r="N7" s="17"/>
       <c r="O7" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>2</v>
       </c>
@@ -26128,14 +26669,16 @@
       <c r="K8" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="17"/>
       <c r="O8" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>3</v>
       </c>
@@ -26163,14 +26706,16 @@
       <c r="K9" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L9" s="11"/>
+      <c r="L9" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="17"/>
       <c r="O9" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>4</v>
       </c>
@@ -26198,14 +26743,16 @@
       <c r="K10" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L10" s="11"/>
+      <c r="L10" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="17"/>
       <c r="O10" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>5</v>
       </c>
@@ -26233,14 +26780,16 @@
       <c r="K11" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="17"/>
       <c r="O11" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>6</v>
       </c>
@@ -26268,14 +26817,16 @@
       <c r="K12" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L12" s="11"/>
+      <c r="L12" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="17"/>
       <c r="O12" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>7</v>
       </c>
@@ -26303,14 +26854,16 @@
       <c r="K13" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L13" s="11"/>
+      <c r="L13" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="17"/>
       <c r="O13" s="22">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>8</v>
       </c>
@@ -26338,14 +26891,16 @@
       <c r="K14" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L14" s="11"/>
+      <c r="L14" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="17"/>
       <c r="O14" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>9</v>
       </c>
@@ -26373,14 +26928,16 @@
       <c r="K15" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L15" s="11"/>
+      <c r="L15" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="17"/>
       <c r="O15" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>10</v>
       </c>
@@ -26408,14 +26965,16 @@
       <c r="K16" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L16" s="11"/>
+      <c r="L16" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="17"/>
       <c r="O16" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>11</v>
       </c>
@@ -26443,14 +27002,16 @@
       <c r="K17" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L17" s="11"/>
+      <c r="L17" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="17"/>
       <c r="O17" s="22">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>12</v>
       </c>
@@ -26478,14 +27039,16 @@
       <c r="K18" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L18" s="11"/>
+      <c r="L18" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="N18" s="17"/>
       <c r="O18" s="22">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>13</v>
       </c>
@@ -26513,14 +27076,16 @@
       <c r="K19" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L19" s="11"/>
+      <c r="L19" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="N19" s="17"/>
       <c r="O19" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>14</v>
       </c>
@@ -26548,7 +27113,9 @@
       <c r="K20" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L20" s="11"/>
+      <c r="L20" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="17"/>
       <c r="O20" s="22">
@@ -26556,7 +27123,7 @@
       </c>
       <c r="P20" s="88"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>15</v>
       </c>
@@ -26584,14 +27151,16 @@
       <c r="K21" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L21" s="11"/>
+      <c r="L21" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="17"/>
       <c r="O21" s="22">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>16</v>
       </c>
@@ -26619,14 +27188,16 @@
       <c r="K22" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="17"/>
       <c r="O22" s="22">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>17</v>
       </c>
@@ -26654,14 +27225,16 @@
       <c r="K23" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L23" s="11"/>
+      <c r="L23" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="17"/>
       <c r="O23" s="22">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>18</v>
       </c>
@@ -26689,14 +27262,16 @@
       <c r="K24" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L24" s="11"/>
+      <c r="L24" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="17"/>
       <c r="O24" s="22">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>19</v>
       </c>
@@ -26724,14 +27299,16 @@
       <c r="K25" s="11">
         <v>9.3157894736842106</v>
       </c>
-      <c r="L25" s="11"/>
+      <c r="L25" s="11">
+        <v>5.2629999999999999</v>
+      </c>
       <c r="M25" s="11"/>
       <c r="N25" s="17"/>
       <c r="O25" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>20</v>
       </c>
@@ -26766,7 +27343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>21</v>
       </c>
@@ -26801,7 +27378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>22</v>
       </c>
@@ -26836,7 +27413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>23</v>
       </c>
@@ -26871,7 +27448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>24</v>
       </c>
@@ -26906,7 +27483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>25</v>
       </c>
@@ -26941,7 +27518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
         <v>26</v>
       </c>
@@ -26977,7 +27554,7 @@
       </c>
       <c r="P32" s="128"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>27</v>
       </c>
@@ -27012,7 +27589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>28</v>
       </c>
@@ -27046,8 +27623,9 @@
       <c r="O34" s="22">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="Q34" s="144"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>29</v>
       </c>
@@ -27082,7 +27660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>30</v>
       </c>
@@ -27117,7 +27695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>31</v>
       </c>
@@ -27147,7 +27725,7 @@
       </c>
       <c r="Q37" s="128"/>
     </row>
-    <row r="38" spans="1:19" s="104" customFormat="1" ht="18.75">
+    <row r="38" spans="1:19" s="104" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="111" t="s">
         <v>55</v>
       </c>
@@ -27193,7 +27771,7 @@
       </c>
       <c r="L38" s="113">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>99.997000000000014</v>
       </c>
       <c r="M38" s="113">
         <f t="shared" si="6"/>
@@ -27201,13 +27779,13 @@
       </c>
       <c r="N38" s="113">
         <f>SUM(B38:M38)</f>
-        <v>1828</v>
+        <v>1927.9970000000001</v>
       </c>
       <c r="O38" s="114" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="3" customFormat="1">
+    <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>17</v>
       </c>
@@ -27251,9 +27829,9 @@
         <f t="shared" si="9"/>
         <v>8.7419354838709662</v>
       </c>
-      <c r="L39" s="27" t="e">
+      <c r="L39" s="27">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>5.2630000000000008</v>
       </c>
       <c r="M39" s="27" t="e">
         <f t="shared" si="9"/>
@@ -27261,13 +27839,13 @@
       </c>
       <c r="N39" s="27">
         <f>N38*0.4675</f>
-        <v>854.59</v>
+        <v>901.33859750000011</v>
       </c>
       <c r="O39" s="75" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="3" customFormat="1">
+    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
         <v>24</v>
       </c>
@@ -27313,7 +27891,7 @@
       </c>
       <c r="L40" s="28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>99.997000000000014</v>
       </c>
       <c r="M40" s="28">
         <f t="shared" si="10"/>
@@ -27321,13 +27899,13 @@
       </c>
       <c r="N40" s="28">
         <f>SUM(B40:M40)</f>
-        <v>-2272</v>
+        <v>-2172.0030000000002</v>
       </c>
       <c r="O40" s="70" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="3" customFormat="1" ht="18">
+    <row r="41" spans="1:19" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>76</v>
       </c>
@@ -27373,21 +27951,21 @@
       </c>
       <c r="L41" s="131">
         <f>SUM(B40:L40)</f>
-        <v>-2272</v>
+        <v>-2172.0030000000002</v>
       </c>
       <c r="M41" s="131">
         <f>SUM(B40:M40)</f>
-        <v>-2272</v>
+        <v>-2172.0030000000002</v>
       </c>
       <c r="N41" s="28">
         <f>N38*0.55882</f>
-        <v>1021.52296</v>
+        <v>1077.4032835400001</v>
       </c>
       <c r="O41" s="70" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="3" customFormat="1">
+    <row r="42" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>51</v>
       </c>
@@ -27407,11 +27985,11 @@
       </c>
       <c r="N42" s="64">
         <f>(SUM(B38:M38))*0.4675</f>
-        <v>854.59</v>
+        <v>901.33859750000011</v>
       </c>
       <c r="O42" s="64"/>
     </row>
-    <row r="43" spans="1:19" s="3" customFormat="1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:19" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
         <v>52</v>
       </c>
@@ -27442,7 +28020,7 @@
       <c r="R43" s="96"/>
       <c r="S43" s="97"/>
     </row>
-    <row r="44" spans="1:19" s="3" customFormat="1" ht="20.25" thickTop="1" thickBot="1">
+    <row r="44" spans="1:19" s="3" customFormat="1" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23" t="s">
         <v>57</v>
       </c>
@@ -27464,22 +28042,22 @@
       </c>
       <c r="N44" s="90">
         <f>N38+2</f>
-        <v>1830</v>
+        <v>1929.9970000000001</v>
       </c>
       <c r="O44" s="72" t="s">
         <v>56</v>
       </c>
       <c r="P44" s="91">
-        <v>1720</v>
+        <v>1928</v>
       </c>
       <c r="Q44" s="92">
         <f>110+P44-N44</f>
-        <v>0</v>
+        <v>108.00299999999993</v>
       </c>
       <c r="R44" s="93"/>
       <c r="S44" s="94"/>
     </row>
-    <row r="45" spans="1:19" s="3" customFormat="1" ht="15.75" thickTop="1">
+    <row r="45" spans="1:19" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="16"/>
       <c r="C45" s="64"/>
@@ -27504,7 +28082,7 @@
       <c r="R45" s="98"/>
       <c r="S45" s="98"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -27524,13 +28102,13 @@
         <v>149</v>
       </c>
       <c r="Q46" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="R46" s="69" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -27549,15 +28127,15 @@
       <c r="P47" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="Q47" s="128">
+      <c r="Q47" s="143">
         <f>Q44/Q46</f>
-        <v>0</v>
+        <v>5.6843684210526275</v>
       </c>
       <c r="R47" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -27574,7 +28152,7 @@
       <c r="N48" s="17"/>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -27591,7 +28169,7 @@
       <c r="N49" s="17"/>
       <c r="O49" s="14"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -27608,7 +28186,7 @@
       <c r="N50" s="17"/>
       <c r="O50" s="14"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -27625,7 +28203,7 @@
       <c r="N51" s="17"/>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -27642,7 +28220,7 @@
       <c r="N52" s="17"/>
       <c r="O52" s="14"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -27659,7 +28237,7 @@
       <c r="N53" s="17"/>
       <c r="O53" s="14"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -27676,7 +28254,7 @@
       <c r="N54" s="17"/>
       <c r="O54" s="14"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -27693,7 +28271,7 @@
       <c r="N55" s="17"/>
       <c r="O55" s="14"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -27710,7 +28288,7 @@
       <c r="N56" s="17"/>
       <c r="O56" s="14"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -27727,7 +28305,7 @@
       <c r="N57" s="17"/>
       <c r="O57" s="14"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -27744,7 +28322,7 @@
       <c r="N58" s="17"/>
       <c r="O58" s="14"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -27761,7 +28339,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="14"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -27778,7 +28356,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="14"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -27795,7 +28373,7 @@
       <c r="N61" s="17"/>
       <c r="O61" s="14"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -27812,7 +28390,7 @@
       <c r="N62" s="17"/>
       <c r="O62" s="14"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -27829,7 +28407,7 @@
       <c r="N63" s="17"/>
       <c r="O63" s="14"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -27846,7 +28424,7 @@
       <c r="N64" s="17"/>
       <c r="O64" s="14"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -27863,7 +28441,7 @@
       <c r="N65" s="17"/>
       <c r="O65" s="14"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -27880,7 +28458,7 @@
       <c r="N66" s="17"/>
       <c r="O66" s="14"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -27897,7 +28475,7 @@
       <c r="N67" s="17"/>
       <c r="O67" s="14"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -27914,7 +28492,7 @@
       <c r="N68" s="17"/>
       <c r="O68" s="14"/>
     </row>
-    <row r="69" spans="1:15" ht="15.75" thickBot="1">
+    <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="24"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -27931,7 +28509,7 @@
       <c r="N69" s="25"/>
       <c r="O69" s="26"/>
     </row>
-    <row r="70" spans="1:15" ht="15.75" thickTop="1"/>
+    <row r="70" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="B44:O44 M45 B40:O41">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
@@ -27946,34 +28524,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
+    <sheetView topLeftCell="F4" workbookViewId="0">
       <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" customWidth="1"/>
+    <col min="7" max="17" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="30" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="30" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1">
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E1" s="7"/>
       <c r="F1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1">
+    <row r="2" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f>'Werte KWh'!B1</f>
         <v>Photovoltaikanlage Daten 2008</v>
@@ -27987,7 +28565,7 @@
         <v>Photovoltaikanlage Daten 2010</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="3" customFormat="1">
+    <row r="3" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>'Werte KWh'!A3</f>
         <v>Soll</v>
@@ -28106,7 +28684,7 @@
         <v>93.863</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="3" customFormat="1">
+    <row r="4" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f>'Werte KWh'!A4</f>
         <v>Durchschnitt</v>
@@ -28225,13 +28803,13 @@
         <v>3.0278387096774195</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C5" s="4">
         <f>'Werte KWh'!C5/4.05</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -28318,7 +28896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>'Werte KWh'!A7</f>
         <v>1</v>
@@ -28433,7 +29011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>'Werte KWh'!A8</f>
         <v>2</v>
@@ -28548,7 +29126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>'Werte KWh'!A9</f>
         <v>3</v>
@@ -28663,7 +29241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>'Werte KWh'!A10</f>
         <v>4</v>
@@ -28778,7 +29356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>'Werte KWh'!A11</f>
         <v>5</v>
@@ -28893,7 +29471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>'Werte KWh'!A12</f>
         <v>6</v>
@@ -29008,7 +29586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>'Werte KWh'!A13</f>
         <v>7</v>
@@ -29123,7 +29701,7 @@
         <v>0.96296296296296302</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>'Werte KWh'!A14</f>
         <v>8</v>
@@ -29238,7 +29816,7 @@
         <v>1.0419753086419752</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>'Werte KWh'!A15</f>
         <v>9</v>
@@ -29353,7 +29931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>'Werte KWh'!A16</f>
         <v>10</v>
@@ -29468,7 +30046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>'Werte KWh'!A17</f>
         <v>11</v>
@@ -29583,7 +30161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>'Werte KWh'!A18</f>
         <v>12</v>
@@ -29698,7 +30276,7 @@
         <v>0.59259259259259256</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>'Werte KWh'!A19</f>
         <v>13</v>
@@ -29813,7 +30391,7 @@
         <v>0.24691358024691359</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>'Werte KWh'!A20</f>
         <v>14</v>
@@ -29928,7 +30506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>'Werte KWh'!A21</f>
         <v>15</v>
@@ -30043,7 +30621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>'Werte KWh'!A22</f>
         <v>16</v>
@@ -30158,7 +30736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>'Werte KWh'!A23</f>
         <v>17</v>
@@ -30273,7 +30851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>'Werte KWh'!A24</f>
         <v>18</v>
@@ -30388,7 +30966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>'Werte KWh'!A25</f>
         <v>19</v>
@@ -30503,7 +31081,7 @@
         <v>0.24691358024691359</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>'Werte KWh'!A26</f>
         <v>20</v>
@@ -30618,7 +31196,7 @@
         <v>0.98765432098765438</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>'Werte KWh'!A27</f>
         <v>21</v>
@@ -30733,7 +31311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>'Werte KWh'!A28</f>
         <v>22</v>
@@ -30848,7 +31426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>'Werte KWh'!A29</f>
         <v>23</v>
@@ -30963,7 +31541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>'Werte KWh'!A30</f>
         <v>24</v>
@@ -31078,7 +31656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>'Werte KWh'!A31</f>
         <v>25</v>
@@ -31193,7 +31771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>'Werte KWh'!A32</f>
         <v>26</v>
@@ -31308,7 +31886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>'Werte KWh'!A33</f>
         <v>27</v>
@@ -31423,7 +32001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>'Werte KWh'!A34</f>
         <v>28</v>
@@ -31538,7 +32116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>'Werte KWh'!A35</f>
         <v>29</v>
@@ -31653,7 +32231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>'Werte KWh'!A36</f>
         <v>30</v>
@@ -31768,7 +32346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>'Werte KWh'!A37</f>
         <v>31</v>
@@ -31883,7 +32461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -31993,12 +32571,12 @@
         <v>36.449382716049371</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C45" s="6" t="s">
         <v>20</v>
       </c>
@@ -32014,20 +32592,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="46"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="69">
         <v>2009</v>
       </c>
@@ -32035,7 +32613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -32043,7 +32621,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -32051,7 +32629,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -32065,7 +32643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -32075,17 +32653,17 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="46"/>
-    <col min="4" max="4" width="12.28515625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="46"/>
-    <col min="7" max="9" width="11.42578125" style="46"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="46"/>
+    <col min="4" max="4" width="12.33203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="46"/>
+    <col min="7" max="9" width="11.44140625" style="46"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="54" customFormat="1" ht="15.75">
+    <row r="1" spans="1:10" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>25</v>
       </c>
@@ -32096,7 +32674,7 @@
       <c r="H1" s="55"/>
       <c r="I1" s="55"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="43" t="s">
         <v>26</v>
@@ -32123,10 +32701,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" s="45"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -32152,7 +32730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
         <v>44</v>
       </c>
@@ -32176,7 +32754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="73" t="s">
         <v>36</v>
       </c>
@@ -32204,7 +32782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -32227,7 +32805,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -32250,7 +32828,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -32273,7 +32851,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -32296,7 +32874,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -32319,7 +32897,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -32342,7 +32920,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -32365,7 +32943,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -32388,7 +32966,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -32411,7 +32989,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -32434,7 +33012,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="73" t="s">
         <v>35</v>
       </c>
@@ -32447,7 +33025,7 @@
       <c r="F18" s="48"/>
       <c r="G18" s="57"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="50"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
@@ -32458,7 +33036,7 @@
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="73"/>
       <c r="B20" s="73"/>
       <c r="C20" s="79"/>
@@ -32469,7 +33047,7 @@
       <c r="H20" s="79"/>
       <c r="I20" s="79"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D21" s="46" t="s">
         <v>72</v>
       </c>
@@ -32491,7 +33069,7 @@
         <v>2235.08</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -32499,7 +33077,7 @@
         <v>900.75</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -32507,7 +33085,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -32518,7 +33096,7 @@
         <v>53.55</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -32526,7 +33104,7 @@
         <v>343.26</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -32534,7 +33112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -32542,7 +33120,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -32550,7 +33128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -32558,7 +33136,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="60"/>
       <c r="B31" s="60"/>
       <c r="C31" s="61"/>
@@ -32572,7 +33150,7 @@
       <c r="H31" s="61"/>
       <c r="I31" s="61"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickTop="1">
+    <row r="32" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
         <v>41</v>
       </c>
@@ -32580,7 +33158,7 @@
         <v>2459.5700000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="63" t="s">
         <v>42</v>
       </c>
@@ -32588,7 +33166,7 @@
         <v>2235.08</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="62" t="s">
         <v>43</v>
       </c>
@@ -32604,16 +33182,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>84</v>
       </c>
@@ -32627,7 +33205,7 @@
       <c r="I1" s="55"/>
       <c r="J1" s="54"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
@@ -32635,7 +33213,7 @@
       <c r="H2" s="46"/>
       <c r="I2" s="46"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="43" t="s">
         <v>26</v>
@@ -32662,7 +33240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -32671,7 +33249,7 @@
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="84" t="s">
         <v>91</v>
       </c>
@@ -32696,7 +33274,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="73"/>
       <c r="B6" s="73" t="s">
         <v>87</v>
@@ -32720,7 +33298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="82" t="s">
         <v>92</v>
@@ -32744,7 +33322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -32762,7 +33340,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="49"/>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
@@ -32780,7 +33358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="49"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -32798,7 +33376,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="49"/>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
@@ -32816,7 +33394,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="49"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -32834,7 +33412,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="49"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -32852,7 +33430,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="49"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -32870,7 +33448,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="49"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -32888,7 +33466,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="49"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -32906,7 +33484,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="49"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -32924,7 +33502,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
       <c r="C18" s="51"/>
@@ -32935,7 +33513,7 @@
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46">
@@ -32955,7 +33533,7 @@
         <v>2440.59</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
@@ -32963,7 +33541,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -32976,7 +33554,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -32989,7 +33567,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -33005,7 +33583,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -33018,7 +33596,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -33031,7 +33609,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -33044,7 +33622,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -33057,7 +33635,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -33070,7 +33648,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="46"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="60"/>
       <c r="B29" s="60"/>
       <c r="C29" s="61"/>
@@ -33084,7 +33662,7 @@
       <c r="H29" s="61"/>
       <c r="I29" s="61"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickTop="1">
+    <row r="30" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
         <v>41</v>
       </c>
@@ -33098,7 +33676,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="63" t="s">
         <v>42</v>
       </c>
@@ -33112,7 +33690,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
         <v>93</v>
       </c>
@@ -33134,16 +33712,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>95</v>
       </c>
@@ -33157,7 +33735,7 @@
       <c r="I1" s="55"/>
       <c r="J1" s="54"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -33168,7 +33746,7 @@
       <c r="H2" s="46"/>
       <c r="I2" s="46"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="43" t="s">
         <v>26</v>
@@ -33195,7 +33773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -33204,7 +33782,7 @@
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="84" t="s">
         <v>96</v>
       </c>
@@ -33229,7 +33807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="73"/>
       <c r="B6" s="73" t="s">
         <v>87</v>
@@ -33253,7 +33831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="82" t="s">
         <v>92</v>
@@ -33277,7 +33855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -33298,7 +33876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="49"/>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
@@ -33319,7 +33897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="49"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -33340,7 +33918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="49"/>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
@@ -33361,7 +33939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="49"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -33382,7 +33960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="49"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -33403,7 +33981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="49"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -33424,7 +34002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="49"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -33445,7 +34023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="49"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -33466,7 +34044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" s="49"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -33487,7 +34065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
       <c r="C18" s="51"/>
@@ -33498,7 +34076,7 @@
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
@@ -33516,7 +34094,7 @@
         <v>2253.37</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
@@ -33524,7 +34102,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -33538,7 +34116,7 @@
       <c r="I21" s="46"/>
       <c r="K21" s="81"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -33551,7 +34129,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -33567,7 +34145,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -33580,7 +34158,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -33593,7 +34171,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -33606,7 +34184,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -33619,7 +34197,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -33632,7 +34210,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="46"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="60"/>
       <c r="B29" s="60"/>
       <c r="C29" s="61"/>
@@ -33646,7 +34224,7 @@
       <c r="H29" s="61"/>
       <c r="I29" s="61"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickTop="1">
+    <row r="30" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
         <v>41</v>
       </c>
@@ -33660,7 +34238,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="63" t="s">
         <v>42</v>
       </c>
@@ -33674,7 +34252,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
         <v>93</v>
       </c>
@@ -33696,16 +34274,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>120</v>
       </c>
@@ -33719,7 +34297,7 @@
       <c r="I1" s="55"/>
       <c r="J1" s="54"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -33730,7 +34308,7 @@
       <c r="H2" s="46"/>
       <c r="I2" s="46"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="43" t="s">
         <v>26</v>
@@ -33757,7 +34335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -33766,7 +34344,7 @@
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="84" t="s">
         <v>119</v>
       </c>
@@ -33785,7 +34363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="73"/>
       <c r="B6" s="73" t="s">
         <v>87</v>
@@ -33803,7 +34381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="82" t="s">
         <v>92</v>
@@ -33821,7 +34399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="49"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -33836,7 +34414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="49"/>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
@@ -33851,7 +34429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="49"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -33866,7 +34444,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="49"/>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
@@ -33881,7 +34459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="49"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -33896,7 +34474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="49"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -33911,7 +34489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="49"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -33926,7 +34504,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="49"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -33941,7 +34519,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="49"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -33956,7 +34534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" s="49"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -33971,7 +34549,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
       <c r="C18" s="51"/>
@@ -33982,7 +34560,7 @@
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
@@ -34000,7 +34578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
@@ -34008,7 +34586,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -34020,7 +34598,7 @@
       <c r="I21" s="46"/>
       <c r="K21" s="81"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -34031,7 +34609,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -34045,7 +34623,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -34056,7 +34634,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -34069,7 +34647,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -34082,7 +34660,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -34095,7 +34673,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -34108,7 +34686,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="46"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="60"/>
       <c r="B29" s="60"/>
       <c r="C29" s="61"/>
@@ -34122,7 +34700,7 @@
       <c r="H29" s="61"/>
       <c r="I29" s="61"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickTop="1">
+    <row r="30" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
         <v>41</v>
       </c>
@@ -34136,7 +34714,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="63" t="s">
         <v>42</v>
       </c>
@@ -34151,7 +34729,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
         <v>93</v>
       </c>
